--- a/sequences/15_retrieval_1.xlsx
+++ b/sequences/15_retrieval_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1988,6 +1988,30 @@
       <c r="F5" t="s">
         <v>208</v>
       </c>
+      <c r="G5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I5" t="s">
+        <v>208</v>
+      </c>
+      <c r="J5" t="s">
+        <v>208</v>
+      </c>
+      <c r="K5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L5" t="s">
+        <v>208</v>
+      </c>
+      <c r="M5" t="s">
+        <v>208</v>
+      </c>
+      <c r="N5" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
@@ -2008,6 +2032,30 @@
       <c r="F6" t="s">
         <v>208</v>
       </c>
+      <c r="G6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I6" t="s">
+        <v>208</v>
+      </c>
+      <c r="J6" t="s">
+        <v>208</v>
+      </c>
+      <c r="K6" t="s">
+        <v>208</v>
+      </c>
+      <c r="L6" t="s">
+        <v>208</v>
+      </c>
+      <c r="M6" t="s">
+        <v>208</v>
+      </c>
+      <c r="N6" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
@@ -2204,6 +2252,30 @@
       <c r="F11" t="s">
         <v>208</v>
       </c>
+      <c r="G11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" t="s">
+        <v>208</v>
+      </c>
+      <c r="I11" t="s">
+        <v>208</v>
+      </c>
+      <c r="J11" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" t="s">
+        <v>208</v>
+      </c>
+      <c r="M11" t="s">
+        <v>208</v>
+      </c>
+      <c r="N11" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
@@ -2268,6 +2340,30 @@
       <c r="F13" t="s">
         <v>208</v>
       </c>
+      <c r="G13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" t="s">
+        <v>208</v>
+      </c>
+      <c r="I13" t="s">
+        <v>208</v>
+      </c>
+      <c r="J13" t="s">
+        <v>208</v>
+      </c>
+      <c r="K13" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" t="s">
+        <v>208</v>
+      </c>
+      <c r="M13" t="s">
+        <v>208</v>
+      </c>
+      <c r="N13" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
@@ -2332,6 +2428,30 @@
       <c r="F15" t="s">
         <v>208</v>
       </c>
+      <c r="G15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H15" t="s">
+        <v>208</v>
+      </c>
+      <c r="I15" t="s">
+        <v>208</v>
+      </c>
+      <c r="J15" t="s">
+        <v>208</v>
+      </c>
+      <c r="K15" t="s">
+        <v>208</v>
+      </c>
+      <c r="L15" t="s">
+        <v>208</v>
+      </c>
+      <c r="M15" t="s">
+        <v>208</v>
+      </c>
+      <c r="N15" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
@@ -2396,6 +2516,30 @@
       <c r="F17" t="s">
         <v>208</v>
       </c>
+      <c r="G17" t="s">
+        <v>208</v>
+      </c>
+      <c r="H17" t="s">
+        <v>208</v>
+      </c>
+      <c r="I17" t="s">
+        <v>208</v>
+      </c>
+      <c r="J17" t="s">
+        <v>208</v>
+      </c>
+      <c r="K17" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17" t="s">
+        <v>208</v>
+      </c>
+      <c r="M17" t="s">
+        <v>208</v>
+      </c>
+      <c r="N17" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
@@ -2504,6 +2648,30 @@
       <c r="F20" t="s">
         <v>208</v>
       </c>
+      <c r="G20" t="s">
+        <v>208</v>
+      </c>
+      <c r="H20" t="s">
+        <v>208</v>
+      </c>
+      <c r="I20" t="s">
+        <v>208</v>
+      </c>
+      <c r="J20" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" t="s">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" t="s">
+        <v>208</v>
+      </c>
+      <c r="N20" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
@@ -2612,6 +2780,30 @@
       <c r="F23" t="s">
         <v>208</v>
       </c>
+      <c r="G23" t="s">
+        <v>208</v>
+      </c>
+      <c r="H23" t="s">
+        <v>208</v>
+      </c>
+      <c r="I23" t="s">
+        <v>208</v>
+      </c>
+      <c r="J23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s">
+        <v>208</v>
+      </c>
+      <c r="M23" t="s">
+        <v>208</v>
+      </c>
+      <c r="N23" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
@@ -2896,6 +3088,30 @@
       <c r="F30" t="s">
         <v>208</v>
       </c>
+      <c r="G30" t="s">
+        <v>208</v>
+      </c>
+      <c r="H30" t="s">
+        <v>208</v>
+      </c>
+      <c r="I30" t="s">
+        <v>208</v>
+      </c>
+      <c r="J30" t="s">
+        <v>208</v>
+      </c>
+      <c r="K30" t="s">
+        <v>208</v>
+      </c>
+      <c r="L30" t="s">
+        <v>208</v>
+      </c>
+      <c r="M30" t="s">
+        <v>208</v>
+      </c>
+      <c r="N30" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
@@ -3048,6 +3264,30 @@
       <c r="F34" t="s">
         <v>208</v>
       </c>
+      <c r="G34" t="s">
+        <v>208</v>
+      </c>
+      <c r="H34" t="s">
+        <v>208</v>
+      </c>
+      <c r="I34" t="s">
+        <v>208</v>
+      </c>
+      <c r="J34" t="s">
+        <v>208</v>
+      </c>
+      <c r="K34" t="s">
+        <v>208</v>
+      </c>
+      <c r="L34" t="s">
+        <v>208</v>
+      </c>
+      <c r="M34" t="s">
+        <v>208</v>
+      </c>
+      <c r="N34" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
@@ -3200,6 +3440,30 @@
       <c r="F38" t="s">
         <v>208</v>
       </c>
+      <c r="G38" t="s">
+        <v>208</v>
+      </c>
+      <c r="H38" t="s">
+        <v>208</v>
+      </c>
+      <c r="I38" t="s">
+        <v>208</v>
+      </c>
+      <c r="J38" t="s">
+        <v>208</v>
+      </c>
+      <c r="K38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M38" t="s">
+        <v>208</v>
+      </c>
+      <c r="N38" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
@@ -3264,6 +3528,30 @@
       <c r="F40" t="s">
         <v>208</v>
       </c>
+      <c r="G40" t="s">
+        <v>208</v>
+      </c>
+      <c r="H40" t="s">
+        <v>208</v>
+      </c>
+      <c r="I40" t="s">
+        <v>208</v>
+      </c>
+      <c r="J40" t="s">
+        <v>208</v>
+      </c>
+      <c r="K40" t="s">
+        <v>208</v>
+      </c>
+      <c r="L40" t="s">
+        <v>208</v>
+      </c>
+      <c r="M40" t="s">
+        <v>208</v>
+      </c>
+      <c r="N40" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
@@ -3284,6 +3572,30 @@
       <c r="F41" t="s">
         <v>208</v>
       </c>
+      <c r="G41" t="s">
+        <v>208</v>
+      </c>
+      <c r="H41" t="s">
+        <v>208</v>
+      </c>
+      <c r="I41" t="s">
+        <v>208</v>
+      </c>
+      <c r="J41" t="s">
+        <v>208</v>
+      </c>
+      <c r="K41" t="s">
+        <v>208</v>
+      </c>
+      <c r="L41" t="s">
+        <v>208</v>
+      </c>
+      <c r="M41" t="s">
+        <v>208</v>
+      </c>
+      <c r="N41" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
@@ -3436,6 +3748,30 @@
       <c r="F45" t="s">
         <v>208</v>
       </c>
+      <c r="G45" t="s">
+        <v>208</v>
+      </c>
+      <c r="H45" t="s">
+        <v>208</v>
+      </c>
+      <c r="I45" t="s">
+        <v>208</v>
+      </c>
+      <c r="J45" t="s">
+        <v>208</v>
+      </c>
+      <c r="K45" t="s">
+        <v>208</v>
+      </c>
+      <c r="L45" t="s">
+        <v>208</v>
+      </c>
+      <c r="M45" t="s">
+        <v>208</v>
+      </c>
+      <c r="N45" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
@@ -3456,6 +3792,30 @@
       <c r="F46" t="s">
         <v>208</v>
       </c>
+      <c r="G46" t="s">
+        <v>208</v>
+      </c>
+      <c r="H46" t="s">
+        <v>208</v>
+      </c>
+      <c r="I46" t="s">
+        <v>208</v>
+      </c>
+      <c r="J46" t="s">
+        <v>208</v>
+      </c>
+      <c r="K46" t="s">
+        <v>208</v>
+      </c>
+      <c r="L46" t="s">
+        <v>208</v>
+      </c>
+      <c r="M46" t="s">
+        <v>208</v>
+      </c>
+      <c r="N46" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
@@ -3520,6 +3880,30 @@
       <c r="F48" t="s">
         <v>208</v>
       </c>
+      <c r="G48" t="s">
+        <v>208</v>
+      </c>
+      <c r="H48" t="s">
+        <v>208</v>
+      </c>
+      <c r="I48" t="s">
+        <v>208</v>
+      </c>
+      <c r="J48" t="s">
+        <v>208</v>
+      </c>
+      <c r="K48" t="s">
+        <v>208</v>
+      </c>
+      <c r="L48" t="s">
+        <v>208</v>
+      </c>
+      <c r="M48" t="s">
+        <v>208</v>
+      </c>
+      <c r="N48" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1">
@@ -3672,6 +4056,30 @@
       <c r="F52" t="s">
         <v>208</v>
       </c>
+      <c r="G52" t="s">
+        <v>208</v>
+      </c>
+      <c r="H52" t="s">
+        <v>208</v>
+      </c>
+      <c r="I52" t="s">
+        <v>208</v>
+      </c>
+      <c r="J52" t="s">
+        <v>208</v>
+      </c>
+      <c r="K52" t="s">
+        <v>208</v>
+      </c>
+      <c r="L52" t="s">
+        <v>208</v>
+      </c>
+      <c r="M52" t="s">
+        <v>208</v>
+      </c>
+      <c r="N52" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
@@ -3692,6 +4100,30 @@
       <c r="F53" t="s">
         <v>208</v>
       </c>
+      <c r="G53" t="s">
+        <v>208</v>
+      </c>
+      <c r="H53" t="s">
+        <v>208</v>
+      </c>
+      <c r="I53" t="s">
+        <v>208</v>
+      </c>
+      <c r="J53" t="s">
+        <v>208</v>
+      </c>
+      <c r="K53" t="s">
+        <v>208</v>
+      </c>
+      <c r="L53" t="s">
+        <v>208</v>
+      </c>
+      <c r="M53" t="s">
+        <v>208</v>
+      </c>
+      <c r="N53" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
@@ -3712,6 +4144,30 @@
       <c r="F54" t="s">
         <v>208</v>
       </c>
+      <c r="G54" t="s">
+        <v>208</v>
+      </c>
+      <c r="H54" t="s">
+        <v>208</v>
+      </c>
+      <c r="I54" t="s">
+        <v>208</v>
+      </c>
+      <c r="J54" t="s">
+        <v>208</v>
+      </c>
+      <c r="K54" t="s">
+        <v>208</v>
+      </c>
+      <c r="L54" t="s">
+        <v>208</v>
+      </c>
+      <c r="M54" t="s">
+        <v>208</v>
+      </c>
+      <c r="N54" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
@@ -3864,6 +4320,30 @@
       <c r="F58" t="s">
         <v>208</v>
       </c>
+      <c r="G58" t="s">
+        <v>208</v>
+      </c>
+      <c r="H58" t="s">
+        <v>208</v>
+      </c>
+      <c r="I58" t="s">
+        <v>208</v>
+      </c>
+      <c r="J58" t="s">
+        <v>208</v>
+      </c>
+      <c r="K58" t="s">
+        <v>208</v>
+      </c>
+      <c r="L58" t="s">
+        <v>208</v>
+      </c>
+      <c r="M58" t="s">
+        <v>208</v>
+      </c>
+      <c r="N58" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="1">
@@ -3884,6 +4364,30 @@
       <c r="F59" t="s">
         <v>208</v>
       </c>
+      <c r="G59" t="s">
+        <v>208</v>
+      </c>
+      <c r="H59" t="s">
+        <v>208</v>
+      </c>
+      <c r="I59" t="s">
+        <v>208</v>
+      </c>
+      <c r="J59" t="s">
+        <v>208</v>
+      </c>
+      <c r="K59" t="s">
+        <v>208</v>
+      </c>
+      <c r="L59" t="s">
+        <v>208</v>
+      </c>
+      <c r="M59" t="s">
+        <v>208</v>
+      </c>
+      <c r="N59" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="1">
@@ -4036,6 +4540,30 @@
       <c r="F63" t="s">
         <v>208</v>
       </c>
+      <c r="G63" t="s">
+        <v>208</v>
+      </c>
+      <c r="H63" t="s">
+        <v>208</v>
+      </c>
+      <c r="I63" t="s">
+        <v>208</v>
+      </c>
+      <c r="J63" t="s">
+        <v>208</v>
+      </c>
+      <c r="K63" t="s">
+        <v>208</v>
+      </c>
+      <c r="L63" t="s">
+        <v>208</v>
+      </c>
+      <c r="M63" t="s">
+        <v>208</v>
+      </c>
+      <c r="N63" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1">
@@ -4056,6 +4584,30 @@
       <c r="F64" t="s">
         <v>208</v>
       </c>
+      <c r="G64" t="s">
+        <v>208</v>
+      </c>
+      <c r="H64" t="s">
+        <v>208</v>
+      </c>
+      <c r="I64" t="s">
+        <v>208</v>
+      </c>
+      <c r="J64" t="s">
+        <v>208</v>
+      </c>
+      <c r="K64" t="s">
+        <v>208</v>
+      </c>
+      <c r="L64" t="s">
+        <v>208</v>
+      </c>
+      <c r="M64" t="s">
+        <v>208</v>
+      </c>
+      <c r="N64" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
@@ -4076,6 +4628,30 @@
       <c r="F65" t="s">
         <v>208</v>
       </c>
+      <c r="G65" t="s">
+        <v>208</v>
+      </c>
+      <c r="H65" t="s">
+        <v>208</v>
+      </c>
+      <c r="I65" t="s">
+        <v>208</v>
+      </c>
+      <c r="J65" t="s">
+        <v>208</v>
+      </c>
+      <c r="K65" t="s">
+        <v>208</v>
+      </c>
+      <c r="L65" t="s">
+        <v>208</v>
+      </c>
+      <c r="M65" t="s">
+        <v>208</v>
+      </c>
+      <c r="N65" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
@@ -4316,6 +4892,30 @@
       <c r="F71" t="s">
         <v>208</v>
       </c>
+      <c r="G71" t="s">
+        <v>208</v>
+      </c>
+      <c r="H71" t="s">
+        <v>208</v>
+      </c>
+      <c r="I71" t="s">
+        <v>208</v>
+      </c>
+      <c r="J71" t="s">
+        <v>208</v>
+      </c>
+      <c r="K71" t="s">
+        <v>208</v>
+      </c>
+      <c r="L71" t="s">
+        <v>208</v>
+      </c>
+      <c r="M71" t="s">
+        <v>208</v>
+      </c>
+      <c r="N71" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="1">
@@ -4336,6 +4936,30 @@
       <c r="F72" t="s">
         <v>208</v>
       </c>
+      <c r="G72" t="s">
+        <v>208</v>
+      </c>
+      <c r="H72" t="s">
+        <v>208</v>
+      </c>
+      <c r="I72" t="s">
+        <v>208</v>
+      </c>
+      <c r="J72" t="s">
+        <v>208</v>
+      </c>
+      <c r="K72" t="s">
+        <v>208</v>
+      </c>
+      <c r="L72" t="s">
+        <v>208</v>
+      </c>
+      <c r="M72" t="s">
+        <v>208</v>
+      </c>
+      <c r="N72" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
@@ -4488,6 +5112,30 @@
       <c r="F76" t="s">
         <v>208</v>
       </c>
+      <c r="G76" t="s">
+        <v>208</v>
+      </c>
+      <c r="H76" t="s">
+        <v>208</v>
+      </c>
+      <c r="I76" t="s">
+        <v>208</v>
+      </c>
+      <c r="J76" t="s">
+        <v>208</v>
+      </c>
+      <c r="K76" t="s">
+        <v>208</v>
+      </c>
+      <c r="L76" t="s">
+        <v>208</v>
+      </c>
+      <c r="M76" t="s">
+        <v>208</v>
+      </c>
+      <c r="N76" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1">
@@ -4552,6 +5200,30 @@
       <c r="F78" t="s">
         <v>208</v>
       </c>
+      <c r="G78" t="s">
+        <v>208</v>
+      </c>
+      <c r="H78" t="s">
+        <v>208</v>
+      </c>
+      <c r="I78" t="s">
+        <v>208</v>
+      </c>
+      <c r="J78" t="s">
+        <v>208</v>
+      </c>
+      <c r="K78" t="s">
+        <v>208</v>
+      </c>
+      <c r="L78" t="s">
+        <v>208</v>
+      </c>
+      <c r="M78" t="s">
+        <v>208</v>
+      </c>
+      <c r="N78" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="1">
@@ -4572,6 +5244,30 @@
       <c r="F79" t="s">
         <v>208</v>
       </c>
+      <c r="G79" t="s">
+        <v>208</v>
+      </c>
+      <c r="H79" t="s">
+        <v>208</v>
+      </c>
+      <c r="I79" t="s">
+        <v>208</v>
+      </c>
+      <c r="J79" t="s">
+        <v>208</v>
+      </c>
+      <c r="K79" t="s">
+        <v>208</v>
+      </c>
+      <c r="L79" t="s">
+        <v>208</v>
+      </c>
+      <c r="M79" t="s">
+        <v>208</v>
+      </c>
+      <c r="N79" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1">
@@ -4812,6 +5508,30 @@
       <c r="F85" t="s">
         <v>208</v>
       </c>
+      <c r="G85" t="s">
+        <v>208</v>
+      </c>
+      <c r="H85" t="s">
+        <v>208</v>
+      </c>
+      <c r="I85" t="s">
+        <v>208</v>
+      </c>
+      <c r="J85" t="s">
+        <v>208</v>
+      </c>
+      <c r="K85" t="s">
+        <v>208</v>
+      </c>
+      <c r="L85" t="s">
+        <v>208</v>
+      </c>
+      <c r="M85" t="s">
+        <v>208</v>
+      </c>
+      <c r="N85" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="1">
@@ -5008,6 +5728,30 @@
       <c r="F90" t="s">
         <v>208</v>
       </c>
+      <c r="G90" t="s">
+        <v>208</v>
+      </c>
+      <c r="H90" t="s">
+        <v>208</v>
+      </c>
+      <c r="I90" t="s">
+        <v>208</v>
+      </c>
+      <c r="J90" t="s">
+        <v>208</v>
+      </c>
+      <c r="K90" t="s">
+        <v>208</v>
+      </c>
+      <c r="L90" t="s">
+        <v>208</v>
+      </c>
+      <c r="M90" t="s">
+        <v>208</v>
+      </c>
+      <c r="N90" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="1">
@@ -5072,6 +5816,30 @@
       <c r="F92" t="s">
         <v>208</v>
       </c>
+      <c r="G92" t="s">
+        <v>208</v>
+      </c>
+      <c r="H92" t="s">
+        <v>208</v>
+      </c>
+      <c r="I92" t="s">
+        <v>208</v>
+      </c>
+      <c r="J92" t="s">
+        <v>208</v>
+      </c>
+      <c r="K92" t="s">
+        <v>208</v>
+      </c>
+      <c r="L92" t="s">
+        <v>208</v>
+      </c>
+      <c r="M92" t="s">
+        <v>208</v>
+      </c>
+      <c r="N92" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="1">
@@ -5268,6 +6036,30 @@
       <c r="F97" t="s">
         <v>208</v>
       </c>
+      <c r="G97" t="s">
+        <v>208</v>
+      </c>
+      <c r="H97" t="s">
+        <v>208</v>
+      </c>
+      <c r="I97" t="s">
+        <v>208</v>
+      </c>
+      <c r="J97" t="s">
+        <v>208</v>
+      </c>
+      <c r="K97" t="s">
+        <v>208</v>
+      </c>
+      <c r="L97" t="s">
+        <v>208</v>
+      </c>
+      <c r="M97" t="s">
+        <v>208</v>
+      </c>
+      <c r="N97" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="1">
@@ -5420,6 +6212,30 @@
       <c r="F101" t="s">
         <v>208</v>
       </c>
+      <c r="G101" t="s">
+        <v>208</v>
+      </c>
+      <c r="H101" t="s">
+        <v>208</v>
+      </c>
+      <c r="I101" t="s">
+        <v>208</v>
+      </c>
+      <c r="J101" t="s">
+        <v>208</v>
+      </c>
+      <c r="K101" t="s">
+        <v>208</v>
+      </c>
+      <c r="L101" t="s">
+        <v>208</v>
+      </c>
+      <c r="M101" t="s">
+        <v>208</v>
+      </c>
+      <c r="N101" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="1">
@@ -5660,6 +6476,30 @@
       <c r="F107" t="s">
         <v>208</v>
       </c>
+      <c r="G107" t="s">
+        <v>208</v>
+      </c>
+      <c r="H107" t="s">
+        <v>208</v>
+      </c>
+      <c r="I107" t="s">
+        <v>208</v>
+      </c>
+      <c r="J107" t="s">
+        <v>208</v>
+      </c>
+      <c r="K107" t="s">
+        <v>208</v>
+      </c>
+      <c r="L107" t="s">
+        <v>208</v>
+      </c>
+      <c r="M107" t="s">
+        <v>208</v>
+      </c>
+      <c r="N107" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="1">
@@ -5768,6 +6608,30 @@
       <c r="F110" t="s">
         <v>208</v>
       </c>
+      <c r="G110" t="s">
+        <v>208</v>
+      </c>
+      <c r="H110" t="s">
+        <v>208</v>
+      </c>
+      <c r="I110" t="s">
+        <v>208</v>
+      </c>
+      <c r="J110" t="s">
+        <v>208</v>
+      </c>
+      <c r="K110" t="s">
+        <v>208</v>
+      </c>
+      <c r="L110" t="s">
+        <v>208</v>
+      </c>
+      <c r="M110" t="s">
+        <v>208</v>
+      </c>
+      <c r="N110" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
@@ -5832,6 +6696,30 @@
       <c r="F112" t="s">
         <v>208</v>
       </c>
+      <c r="G112" t="s">
+        <v>208</v>
+      </c>
+      <c r="H112" t="s">
+        <v>208</v>
+      </c>
+      <c r="I112" t="s">
+        <v>208</v>
+      </c>
+      <c r="J112" t="s">
+        <v>208</v>
+      </c>
+      <c r="K112" t="s">
+        <v>208</v>
+      </c>
+      <c r="L112" t="s">
+        <v>208</v>
+      </c>
+      <c r="M112" t="s">
+        <v>208</v>
+      </c>
+      <c r="N112" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="1">
@@ -5852,6 +6740,30 @@
       <c r="F113" t="s">
         <v>208</v>
       </c>
+      <c r="G113" t="s">
+        <v>208</v>
+      </c>
+      <c r="H113" t="s">
+        <v>208</v>
+      </c>
+      <c r="I113" t="s">
+        <v>208</v>
+      </c>
+      <c r="J113" t="s">
+        <v>208</v>
+      </c>
+      <c r="K113" t="s">
+        <v>208</v>
+      </c>
+      <c r="L113" t="s">
+        <v>208</v>
+      </c>
+      <c r="M113" t="s">
+        <v>208</v>
+      </c>
+      <c r="N113" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="1">
@@ -5872,6 +6784,30 @@
       <c r="F114" t="s">
         <v>208</v>
       </c>
+      <c r="G114" t="s">
+        <v>208</v>
+      </c>
+      <c r="H114" t="s">
+        <v>208</v>
+      </c>
+      <c r="I114" t="s">
+        <v>208</v>
+      </c>
+      <c r="J114" t="s">
+        <v>208</v>
+      </c>
+      <c r="K114" t="s">
+        <v>208</v>
+      </c>
+      <c r="L114" t="s">
+        <v>208</v>
+      </c>
+      <c r="M114" t="s">
+        <v>208</v>
+      </c>
+      <c r="N114" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="1">
@@ -5936,6 +6872,30 @@
       <c r="F116" t="s">
         <v>208</v>
       </c>
+      <c r="G116" t="s">
+        <v>208</v>
+      </c>
+      <c r="H116" t="s">
+        <v>208</v>
+      </c>
+      <c r="I116" t="s">
+        <v>208</v>
+      </c>
+      <c r="J116" t="s">
+        <v>208</v>
+      </c>
+      <c r="K116" t="s">
+        <v>208</v>
+      </c>
+      <c r="L116" t="s">
+        <v>208</v>
+      </c>
+      <c r="M116" t="s">
+        <v>208</v>
+      </c>
+      <c r="N116" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="1">
@@ -6000,6 +6960,30 @@
       <c r="F118" t="s">
         <v>208</v>
       </c>
+      <c r="G118" t="s">
+        <v>208</v>
+      </c>
+      <c r="H118" t="s">
+        <v>208</v>
+      </c>
+      <c r="I118" t="s">
+        <v>208</v>
+      </c>
+      <c r="J118" t="s">
+        <v>208</v>
+      </c>
+      <c r="K118" t="s">
+        <v>208</v>
+      </c>
+      <c r="L118" t="s">
+        <v>208</v>
+      </c>
+      <c r="M118" t="s">
+        <v>208</v>
+      </c>
+      <c r="N118" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="1">
@@ -6020,6 +7004,30 @@
       <c r="F119" t="s">
         <v>208</v>
       </c>
+      <c r="G119" t="s">
+        <v>208</v>
+      </c>
+      <c r="H119" t="s">
+        <v>208</v>
+      </c>
+      <c r="I119" t="s">
+        <v>208</v>
+      </c>
+      <c r="J119" t="s">
+        <v>208</v>
+      </c>
+      <c r="K119" t="s">
+        <v>208</v>
+      </c>
+      <c r="L119" t="s">
+        <v>208</v>
+      </c>
+      <c r="M119" t="s">
+        <v>208</v>
+      </c>
+      <c r="N119" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="1">
@@ -6128,6 +7136,30 @@
       <c r="F122" t="s">
         <v>208</v>
       </c>
+      <c r="G122" t="s">
+        <v>208</v>
+      </c>
+      <c r="H122" t="s">
+        <v>208</v>
+      </c>
+      <c r="I122" t="s">
+        <v>208</v>
+      </c>
+      <c r="J122" t="s">
+        <v>208</v>
+      </c>
+      <c r="K122" t="s">
+        <v>208</v>
+      </c>
+      <c r="L122" t="s">
+        <v>208</v>
+      </c>
+      <c r="M122" t="s">
+        <v>208</v>
+      </c>
+      <c r="N122" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="1">
@@ -6192,6 +7224,30 @@
       <c r="F124" t="s">
         <v>208</v>
       </c>
+      <c r="G124" t="s">
+        <v>208</v>
+      </c>
+      <c r="H124" t="s">
+        <v>208</v>
+      </c>
+      <c r="I124" t="s">
+        <v>208</v>
+      </c>
+      <c r="J124" t="s">
+        <v>208</v>
+      </c>
+      <c r="K124" t="s">
+        <v>208</v>
+      </c>
+      <c r="L124" t="s">
+        <v>208</v>
+      </c>
+      <c r="M124" t="s">
+        <v>208</v>
+      </c>
+      <c r="N124" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="1">
@@ -6300,6 +7356,30 @@
       <c r="F127" t="s">
         <v>208</v>
       </c>
+      <c r="G127" t="s">
+        <v>208</v>
+      </c>
+      <c r="H127" t="s">
+        <v>208</v>
+      </c>
+      <c r="I127" t="s">
+        <v>208</v>
+      </c>
+      <c r="J127" t="s">
+        <v>208</v>
+      </c>
+      <c r="K127" t="s">
+        <v>208</v>
+      </c>
+      <c r="L127" t="s">
+        <v>208</v>
+      </c>
+      <c r="M127" t="s">
+        <v>208</v>
+      </c>
+      <c r="N127" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="1">
@@ -6320,6 +7400,30 @@
       <c r="F128" t="s">
         <v>208</v>
       </c>
+      <c r="G128" t="s">
+        <v>208</v>
+      </c>
+      <c r="H128" t="s">
+        <v>208</v>
+      </c>
+      <c r="I128" t="s">
+        <v>208</v>
+      </c>
+      <c r="J128" t="s">
+        <v>208</v>
+      </c>
+      <c r="K128" t="s">
+        <v>208</v>
+      </c>
+      <c r="L128" t="s">
+        <v>208</v>
+      </c>
+      <c r="M128" t="s">
+        <v>208</v>
+      </c>
+      <c r="N128" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="1">
@@ -6516,6 +7620,30 @@
       <c r="F133" t="s">
         <v>208</v>
       </c>
+      <c r="G133" t="s">
+        <v>208</v>
+      </c>
+      <c r="H133" t="s">
+        <v>208</v>
+      </c>
+      <c r="I133" t="s">
+        <v>208</v>
+      </c>
+      <c r="J133" t="s">
+        <v>208</v>
+      </c>
+      <c r="K133" t="s">
+        <v>208</v>
+      </c>
+      <c r="L133" t="s">
+        <v>208</v>
+      </c>
+      <c r="M133" t="s">
+        <v>208</v>
+      </c>
+      <c r="N133" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="1">
@@ -6756,6 +7884,30 @@
       <c r="F139" t="s">
         <v>208</v>
       </c>
+      <c r="G139" t="s">
+        <v>208</v>
+      </c>
+      <c r="H139" t="s">
+        <v>208</v>
+      </c>
+      <c r="I139" t="s">
+        <v>208</v>
+      </c>
+      <c r="J139" t="s">
+        <v>208</v>
+      </c>
+      <c r="K139" t="s">
+        <v>208</v>
+      </c>
+      <c r="L139" t="s">
+        <v>208</v>
+      </c>
+      <c r="M139" t="s">
+        <v>208</v>
+      </c>
+      <c r="N139" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="1">
@@ -6952,6 +8104,30 @@
       <c r="F144" t="s">
         <v>208</v>
       </c>
+      <c r="G144" t="s">
+        <v>208</v>
+      </c>
+      <c r="H144" t="s">
+        <v>208</v>
+      </c>
+      <c r="I144" t="s">
+        <v>208</v>
+      </c>
+      <c r="J144" t="s">
+        <v>208</v>
+      </c>
+      <c r="K144" t="s">
+        <v>208</v>
+      </c>
+      <c r="L144" t="s">
+        <v>208</v>
+      </c>
+      <c r="M144" t="s">
+        <v>208</v>
+      </c>
+      <c r="N144" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
@@ -6972,6 +8148,30 @@
       <c r="F145" t="s">
         <v>208</v>
       </c>
+      <c r="G145" t="s">
+        <v>208</v>
+      </c>
+      <c r="H145" t="s">
+        <v>208</v>
+      </c>
+      <c r="I145" t="s">
+        <v>208</v>
+      </c>
+      <c r="J145" t="s">
+        <v>208</v>
+      </c>
+      <c r="K145" t="s">
+        <v>208</v>
+      </c>
+      <c r="L145" t="s">
+        <v>208</v>
+      </c>
+      <c r="M145" t="s">
+        <v>208</v>
+      </c>
+      <c r="N145" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="1">
@@ -7212,6 +8412,30 @@
       <c r="F151" t="s">
         <v>208</v>
       </c>
+      <c r="G151" t="s">
+        <v>208</v>
+      </c>
+      <c r="H151" t="s">
+        <v>208</v>
+      </c>
+      <c r="I151" t="s">
+        <v>208</v>
+      </c>
+      <c r="J151" t="s">
+        <v>208</v>
+      </c>
+      <c r="K151" t="s">
+        <v>208</v>
+      </c>
+      <c r="L151" t="s">
+        <v>208</v>
+      </c>
+      <c r="M151" t="s">
+        <v>208</v>
+      </c>
+      <c r="N151" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="1">
@@ -7232,6 +8456,30 @@
       <c r="F152" t="s">
         <v>208</v>
       </c>
+      <c r="G152" t="s">
+        <v>208</v>
+      </c>
+      <c r="H152" t="s">
+        <v>208</v>
+      </c>
+      <c r="I152" t="s">
+        <v>208</v>
+      </c>
+      <c r="J152" t="s">
+        <v>208</v>
+      </c>
+      <c r="K152" t="s">
+        <v>208</v>
+      </c>
+      <c r="L152" t="s">
+        <v>208</v>
+      </c>
+      <c r="M152" t="s">
+        <v>208</v>
+      </c>
+      <c r="N152" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="1">
@@ -7384,6 +8632,30 @@
       <c r="F156" t="s">
         <v>208</v>
       </c>
+      <c r="G156" t="s">
+        <v>208</v>
+      </c>
+      <c r="H156" t="s">
+        <v>208</v>
+      </c>
+      <c r="I156" t="s">
+        <v>208</v>
+      </c>
+      <c r="J156" t="s">
+        <v>208</v>
+      </c>
+      <c r="K156" t="s">
+        <v>208</v>
+      </c>
+      <c r="L156" t="s">
+        <v>208</v>
+      </c>
+      <c r="M156" t="s">
+        <v>208</v>
+      </c>
+      <c r="N156" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
@@ -7536,6 +8808,30 @@
       <c r="F160" t="s">
         <v>208</v>
       </c>
+      <c r="G160" t="s">
+        <v>208</v>
+      </c>
+      <c r="H160" t="s">
+        <v>208</v>
+      </c>
+      <c r="I160" t="s">
+        <v>208</v>
+      </c>
+      <c r="J160" t="s">
+        <v>208</v>
+      </c>
+      <c r="K160" t="s">
+        <v>208</v>
+      </c>
+      <c r="L160" t="s">
+        <v>208</v>
+      </c>
+      <c r="M160" t="s">
+        <v>208</v>
+      </c>
+      <c r="N160" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="1">
@@ -7556,6 +8852,30 @@
       <c r="F161" t="s">
         <v>208</v>
       </c>
+      <c r="G161" t="s">
+        <v>208</v>
+      </c>
+      <c r="H161" t="s">
+        <v>208</v>
+      </c>
+      <c r="I161" t="s">
+        <v>208</v>
+      </c>
+      <c r="J161" t="s">
+        <v>208</v>
+      </c>
+      <c r="K161" t="s">
+        <v>208</v>
+      </c>
+      <c r="L161" t="s">
+        <v>208</v>
+      </c>
+      <c r="M161" t="s">
+        <v>208</v>
+      </c>
+      <c r="N161" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="1">
@@ -7664,6 +8984,30 @@
       <c r="F164" t="s">
         <v>208</v>
       </c>
+      <c r="G164" t="s">
+        <v>208</v>
+      </c>
+      <c r="H164" t="s">
+        <v>208</v>
+      </c>
+      <c r="I164" t="s">
+        <v>208</v>
+      </c>
+      <c r="J164" t="s">
+        <v>208</v>
+      </c>
+      <c r="K164" t="s">
+        <v>208</v>
+      </c>
+      <c r="L164" t="s">
+        <v>208</v>
+      </c>
+      <c r="M164" t="s">
+        <v>208</v>
+      </c>
+      <c r="N164" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="1">
@@ -7728,6 +9072,30 @@
       <c r="F166" t="s">
         <v>208</v>
       </c>
+      <c r="G166" t="s">
+        <v>208</v>
+      </c>
+      <c r="H166" t="s">
+        <v>208</v>
+      </c>
+      <c r="I166" t="s">
+        <v>208</v>
+      </c>
+      <c r="J166" t="s">
+        <v>208</v>
+      </c>
+      <c r="K166" t="s">
+        <v>208</v>
+      </c>
+      <c r="L166" t="s">
+        <v>208</v>
+      </c>
+      <c r="M166" t="s">
+        <v>208</v>
+      </c>
+      <c r="N166" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="1">
@@ -7924,6 +9292,30 @@
       <c r="F171" t="s">
         <v>208</v>
       </c>
+      <c r="G171" t="s">
+        <v>208</v>
+      </c>
+      <c r="H171" t="s">
+        <v>208</v>
+      </c>
+      <c r="I171" t="s">
+        <v>208</v>
+      </c>
+      <c r="J171" t="s">
+        <v>208</v>
+      </c>
+      <c r="K171" t="s">
+        <v>208</v>
+      </c>
+      <c r="L171" t="s">
+        <v>208</v>
+      </c>
+      <c r="M171" t="s">
+        <v>208</v>
+      </c>
+      <c r="N171" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="1">
@@ -8076,6 +9468,30 @@
       <c r="F175" t="s">
         <v>208</v>
       </c>
+      <c r="G175" t="s">
+        <v>208</v>
+      </c>
+      <c r="H175" t="s">
+        <v>208</v>
+      </c>
+      <c r="I175" t="s">
+        <v>208</v>
+      </c>
+      <c r="J175" t="s">
+        <v>208</v>
+      </c>
+      <c r="K175" t="s">
+        <v>208</v>
+      </c>
+      <c r="L175" t="s">
+        <v>208</v>
+      </c>
+      <c r="M175" t="s">
+        <v>208</v>
+      </c>
+      <c r="N175" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="1">
@@ -8140,6 +9556,30 @@
       <c r="F177" t="s">
         <v>208</v>
       </c>
+      <c r="G177" t="s">
+        <v>208</v>
+      </c>
+      <c r="H177" t="s">
+        <v>208</v>
+      </c>
+      <c r="I177" t="s">
+        <v>208</v>
+      </c>
+      <c r="J177" t="s">
+        <v>208</v>
+      </c>
+      <c r="K177" t="s">
+        <v>208</v>
+      </c>
+      <c r="L177" t="s">
+        <v>208</v>
+      </c>
+      <c r="M177" t="s">
+        <v>208</v>
+      </c>
+      <c r="N177" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="1">
@@ -8204,6 +9644,30 @@
       <c r="F179" t="s">
         <v>208</v>
       </c>
+      <c r="G179" t="s">
+        <v>208</v>
+      </c>
+      <c r="H179" t="s">
+        <v>208</v>
+      </c>
+      <c r="I179" t="s">
+        <v>208</v>
+      </c>
+      <c r="J179" t="s">
+        <v>208</v>
+      </c>
+      <c r="K179" t="s">
+        <v>208</v>
+      </c>
+      <c r="L179" t="s">
+        <v>208</v>
+      </c>
+      <c r="M179" t="s">
+        <v>208</v>
+      </c>
+      <c r="N179" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="1">
@@ -8400,6 +9864,30 @@
       <c r="F184" t="s">
         <v>208</v>
       </c>
+      <c r="G184" t="s">
+        <v>208</v>
+      </c>
+      <c r="H184" t="s">
+        <v>208</v>
+      </c>
+      <c r="I184" t="s">
+        <v>208</v>
+      </c>
+      <c r="J184" t="s">
+        <v>208</v>
+      </c>
+      <c r="K184" t="s">
+        <v>208</v>
+      </c>
+      <c r="L184" t="s">
+        <v>208</v>
+      </c>
+      <c r="M184" t="s">
+        <v>208</v>
+      </c>
+      <c r="N184" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="1">
@@ -8640,6 +10128,30 @@
       <c r="F190" t="s">
         <v>208</v>
       </c>
+      <c r="G190" t="s">
+        <v>208</v>
+      </c>
+      <c r="H190" t="s">
+        <v>208</v>
+      </c>
+      <c r="I190" t="s">
+        <v>208</v>
+      </c>
+      <c r="J190" t="s">
+        <v>208</v>
+      </c>
+      <c r="K190" t="s">
+        <v>208</v>
+      </c>
+      <c r="L190" t="s">
+        <v>208</v>
+      </c>
+      <c r="M190" t="s">
+        <v>208</v>
+      </c>
+      <c r="N190" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="1">
@@ -8702,6 +10214,30 @@
         <v>1</v>
       </c>
       <c r="F192" t="s">
+        <v>208</v>
+      </c>
+      <c r="G192" t="s">
+        <v>208</v>
+      </c>
+      <c r="H192" t="s">
+        <v>208</v>
+      </c>
+      <c r="I192" t="s">
+        <v>208</v>
+      </c>
+      <c r="J192" t="s">
+        <v>208</v>
+      </c>
+      <c r="K192" t="s">
+        <v>208</v>
+      </c>
+      <c r="L192" t="s">
+        <v>208</v>
+      </c>
+      <c r="M192" t="s">
+        <v>208</v>
+      </c>
+      <c r="N192" t="s">
         <v>208</v>
       </c>
     </row>

--- a/sequences/15_retrieval_1.xlsx
+++ b/sequences/15_retrieval_1.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>wehren</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>prügeln</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>nerven</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>melden</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>nähen</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>sparen</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>haben</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>stören</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>träumen</t>
+  </si>
+  <si>
+    <t>schlagen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>ahnen</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>tauchen</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>feuern</t>
+  </si>
+  <si>
+    <t>eignen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>opfern</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>scheiden</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>herzen</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>läuten</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>kratzen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>locken</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>pissen</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>gnaden</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>hupen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>lenken</t>
+  </si>
+  <si>
+    <t>knurren</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>stoppen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>drucken</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>stechen</t>
+  </si>
+  <si>
+    <t>doppeln</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>hacken</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>rücken</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>zeichnen</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>leeren</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>mühen</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
     <t>küssen</t>
   </si>
   <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>freuen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>osten</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>meistern</t>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>messen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>wetten</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>rauben</t>
   </si>
   <si>
     <t>spüren</t>
   </si>
   <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>trauen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>leihen</t>
-  </si>
-  <si>
-    <t>hupen</t>
+    <t>fesseln</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>löschen</t>
   </si>
   <si>
     <t>planen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>hexen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>schlagen</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>lesen</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>nutzen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>wahren</t>
-  </si>
-  <si>
-    <t>scheiden</t>
-  </si>
-  <si>
-    <t>locken</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>widmen</t>
-  </si>
-  <si>
-    <t>lauten</t>
-  </si>
-  <si>
-    <t>schlampen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>spinnen</t>
-  </si>
-  <si>
-    <t>schnellen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>warten</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>schließen</t>
-  </si>
-  <si>
-    <t>dingen</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>sorgen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>fassen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>nähen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>flammen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>rauchen</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>schreiten</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>greifen</t>
-  </si>
-  <si>
-    <t>sterben</t>
-  </si>
-  <si>
-    <t>ächzen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>reiten</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>pfeifen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>läuten</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>sperren</t>
-  </si>
-  <si>
-    <t>nennen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>wetten</t>
-  </si>
-  <si>
-    <t>klettern</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>feiern</t>
-  </si>
-  <si>
-    <t>filmen</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>plaudern</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>sitzen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>siegen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>stehen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>bremsen</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>zwingen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>hängen</t>
-  </si>
-  <si>
-    <t>nullen</t>
   </si>
   <si>
     <t>flower/flower019.jpg</t>
